--- a/SALON实验数据.xlsx
+++ b/SALON实验数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunkexin/Desktop/研究日志/2025.01/Internet2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DEA0BD-A1E3-5343-B97C-465223C7F1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315C0DA6-E3B3-8D48-95C0-FD5B024D5AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7120" yWindow="500" windowWidth="27240" windowHeight="16360" activeTab="4" xr2:uid="{ACC9541F-CBA8-D740-8514-C24FF3F1D180}"/>
+    <workbookView xWindow="3000" yWindow="760" windowWidth="27240" windowHeight="17680" activeTab="6" xr2:uid="{ACC9541F-CBA8-D740-8514-C24FF3F1D180}"/>
   </bookViews>
   <sheets>
     <sheet name="detail data" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="模型对比" sheetId="5" r:id="rId3"/>
     <sheet name="字数统计" sheetId="2" r:id="rId4"/>
     <sheet name="对比" sheetId="3" r:id="rId5"/>
+    <sheet name="论文的全量实验（gpt-4o-mini）" sheetId="6" r:id="rId6"/>
+    <sheet name="论文的全量实验（deepseek）" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="171">
   <si>
     <t>index</t>
   </si>
@@ -579,7 +581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -633,8 +635,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,8 +691,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -735,13 +761,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -859,7 +913,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1178,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D456EA-5D52-8340-AD06-0174C4E9B15B}">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:M54"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12976,7 +13066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67FE647-3285-2841-847A-1A12706A24C6}">
   <dimension ref="A3:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
@@ -13782,13 +13872,13 @@
       <c r="D30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="2" t="s">
         <v>170</v>
       </c>
     </row>
@@ -14638,6 +14728,3884 @@
         <v>0.79345372460496622</v>
       </c>
     </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54D4E49-1B3D-BB40-8B74-7D73379E631C}">
+  <dimension ref="A1:M47"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.76975169300225699</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.77416936880309895</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.76975169300225699</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.91269841269841301</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.75163398692810501</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.82437275985663105</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.67676767676767702</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.72826086956521696</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.77310924369747902</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.76666666666666705</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.76987447698744804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0.77652370203160304</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.77697567920170696</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.77652370203160304</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0.89208633093525203</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0.81045751633986896</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.84931506849315097</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0.80588235294117705</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0.74054054054054097</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0.79807692307692302</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0.69166666666666698</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0.74107142857142905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17" thickBot="1">
+      <c r="A4" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="40">
+        <v>0.70428893905191903</v>
+      </c>
+      <c r="C4" s="40">
+        <v>0.70490501951463103</v>
+      </c>
+      <c r="D4" s="40">
+        <v>0.70428893905191903</v>
+      </c>
+      <c r="E4" s="40">
+        <v>0.91743119266055095</v>
+      </c>
+      <c r="F4" s="40">
+        <v>0.65359477124182996</v>
+      </c>
+      <c r="G4" s="40">
+        <v>0.76335877862595403</v>
+      </c>
+      <c r="H4" s="40">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="I4" s="40">
+        <v>0.82941176470588196</v>
+      </c>
+      <c r="J4" s="40">
+        <v>0.68780487804877999</v>
+      </c>
+      <c r="K4" s="40">
+        <v>0.75531914893617003</v>
+      </c>
+      <c r="L4" s="40">
+        <v>0.59166666666666701</v>
+      </c>
+      <c r="M4" s="40">
+        <v>0.66355140186915895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17" thickTop="1">
+      <c r="A5" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.792325056433409</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.79267189833227603</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.792325056433409</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.86451612903225805</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.87581699346405195</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.87012987012986998</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.77702702702702697</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.67647058823529405</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.72327044025157206</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.72857142857142898</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.78461538461538505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.78329571106094797</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.784244557176073</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.78329571106094797</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.86754966887417195</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.85620915032679701</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.86184210526315796</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.74074074074074103</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.72289156626506001</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.73846153846153895</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.79006772009029402</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.79011479415749497</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.79006772009029402</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.87333333333333296</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.85620915032679701</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.86468646864686505</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.74556213017751505</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.74117647058823499</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.74336283185840701</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.76229508196721296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.79006772009029402</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.78994568506414897</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.79006772009029402</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.87581699346405195</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.87581699346405195</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.87581699346405195</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.76623376623376604</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.69411764705882395</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.72839506172839497</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.72058823529411797</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.81666666666666698</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.79909706546275405</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.79890379729607097</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.79909706546275405</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.87179487179487203</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.88025889967637505</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.78145695364238399</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.69411764705882395</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.73520249221183798</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.79006772009029402</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.78911545464277999</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.79006772009029402</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.85624999999999996</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.89542483660130701</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.87539936102236404</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.78082191780821897</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.67058823529411804</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.721518987341772</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.72262773722627704</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.77042801556420204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.81038374717832995</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.80990265019533303</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.81038374717832995</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.88387096774193596</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.89542483660130701</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.88961038961038996</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.784810126582278</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.72941176470588198</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.75609756097560998</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.75384615384615405</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.81666666666666698</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.79683972911963896</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.79630725372188804</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.79683972911963896</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.87741935483871003</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.88311688311688297</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.765822784810127</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.71176470588235297</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.73780487804878103</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.73846153846153895</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.78781038374717804</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.78774265578686997</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.78781038374717904</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.89261744966443002</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.86928104575163401</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.88079470198675502</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.76973684210526305</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.68823529411764695</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.72670807453416197</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.69718309859154903</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.75572519083969503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.78781038374717804</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.78896751950644195</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.78781038374717904</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.89041095890411004</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.84967320261437895</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.86956521739130399</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.74390243902439002</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.71764705882352897</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.73053892215568905</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.72932330827067704</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.80833333333333302</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.76679841897233203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.78555304740406295</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.78536583123160997</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.78555304740406295</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.86928104575163401</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.87213114754098398</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.761290322580645</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.69411764705882395</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.72615384615384604</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.71323529411764697</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.80833333333333302</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.7578125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.78103837471783299</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.78128598331988197</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.78103837471783299</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.88435374149659896</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.84967320261437895</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.71111111111111103</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.752941176470588</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.73142857142857098</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.75862068965517204</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.74576271186440701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.792325056433409</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.79193455609068597</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.792325056433409</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.77483443708609301</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.68823529411764695</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.72897196261682295</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.71223021582733803</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0.76447876447876495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="9">
+        <f>AVERAGE(B5:B17)</f>
+        <v>0.79128320889043247</v>
+      </c>
+      <c r="C18" s="9">
+        <f t="shared" ref="C18:M18" si="0">AVERAGE(C5:C17)</f>
+        <v>0.79126943357858093</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.79128320889043258</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.87656049310161088</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.87330316742081449</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.87479781889939523</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.76179619991765846</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7049773755656108</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.73171886119773277</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.73064948892080761</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.80897435897435888</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.76729162063861522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.79909706546275405</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.79930711689589595</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.79909706546275405</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.87012987012986998</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.87581699346405195</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.87296416938110699</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.75757575757575801</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.74626865671641796</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.76612903225806495</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.77868852459016402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.79458239277652398</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.79502282912659505</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.79458239277652398</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.88079470198675502</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.86928104575163401</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.75776397515528005</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.71764705882352897</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.73716012084592097</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.74045801526717603</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.80833333333333302</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0.77290836653386497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.79458239277652398</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.79574520205056898</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.79458239277652398</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.84967320261437895</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.85808580858085803</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.73684210526315796</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.73571428571428599</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.85833333333333295</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0.79230769230769205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.81038374717832995</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.80991895118012303</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.81038374717832995</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.90066225165562896</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.81081081081081097</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.75471698113207597</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.85833333333333295</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.78030303030303005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.80135440180586903</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.80098685199794295</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.80135440180586903</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.74853801169590595</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.752941176470588</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.75073313782991202</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.77310924369747902</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.76666666666666705</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.76987447698744804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.77652370203160304</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.77722292105121404</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.77652370203160304</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.84967320261437895</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.85808580858085803</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.73170731707317105</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.71856287425149701</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.72868217054263595</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0.75502008032128498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.80361173814898401</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.80341112542010895</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.80361173814898401</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.86624203821656098</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.87741935483871003</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.80136986301369895</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.68823529411764695</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.740506329113924</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.73571428571428599</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.85833333333333295</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0.79230769230769205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.78329571106094797</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.78241368664908195</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.78329571106094797</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.87662337662337697</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.87947882736156402</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.72093023255814004</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.72941176470588198</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.72514619883040898</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.75213675213675202</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0.74261603375527396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.78781038374717804</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.78765786452353603</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.78781038374717904</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.887417218543046</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.87581699346405195</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.88157894736842102</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.73939393939393905</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.71764705882352897</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.72835820895522396</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.73228346456692905</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0.75303643724696401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.80135440180586903</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.802770772246575</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.80135440180586903</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.88513513513513498</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.85620915032679701</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.87043189368770801</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.75147928994082802</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.747058823529412</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.74926253687315603</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.76984126984126999</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.80833333333333302</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0.78861788617886197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="4">
+        <v>2.11</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.78555304740406295</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.78596949891067602</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.78555304740406295</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.86928104575163401</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.86928104575163401</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.86928104575163401</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.75483870967741895</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.68823529411764695</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.72592592592592597</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.81666666666666698</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0.76862745098039198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.79909706546275405</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.79961960602052096</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.79909706546275405</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.89795918367346905</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.86274509803921595</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.75449101796407203</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.74117647058823499</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.74777448071216601</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.74418604651162801</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0.77108433734939796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.792325056433409</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.79278515320935095</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.792325056433409</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.891156462585034</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.85620915032679701</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.87333333333333296</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.72881355932203395</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.75882352941176501</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.74351585014409205</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.75833333333333297</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0.76150627615062805</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17" thickBot="1">
+      <c r="A32" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="43">
+        <f>AVERAGE(B19:B31)</f>
+        <v>0.79458239277652365</v>
+      </c>
+      <c r="C32" s="43">
+        <f t="shared" ref="C32" si="1">AVERAGE(C19:C31)</f>
+        <v>0.79483319840632227</v>
+      </c>
+      <c r="D32" s="43">
+        <f t="shared" ref="D32" si="2">AVERAGE(D19:D31)</f>
+        <v>0.79458239277652387</v>
+      </c>
+      <c r="E32" s="43">
+        <f t="shared" ref="E32" si="3">AVERAGE(E19:E31)</f>
+        <v>0.88008365837002434</v>
+      </c>
+      <c r="F32" s="43">
+        <f t="shared" ref="F32" si="4">AVERAGE(F19:F31)</f>
+        <v>0.86978381096028179</v>
+      </c>
+      <c r="G32" s="43">
+        <f t="shared" ref="G32" si="5">AVERAGE(G19:G31)</f>
+        <v>0.87482684401276378</v>
+      </c>
+      <c r="H32" s="43">
+        <f t="shared" ref="H32" si="6">AVERAGE(H19:H31)</f>
+        <v>0.75657617399683363</v>
+      </c>
+      <c r="I32" s="43">
+        <f t="shared" ref="I32" si="7">AVERAGE(I19:I31)</f>
+        <v>0.72217194570135734</v>
+      </c>
+      <c r="J32" s="43">
+        <f t="shared" ref="J32" si="8">AVERAGE(J19:J31)</f>
+        <v>0.73837288312830418</v>
+      </c>
+      <c r="K32" s="43">
+        <f t="shared" ref="K32" si="9">AVERAGE(K19:K31)</f>
+        <v>0.74493570402362685</v>
+      </c>
+      <c r="L32" s="43">
+        <f t="shared" ref="L32" si="10">AVERAGE(L19:L31)</f>
+        <v>0.80128205128205121</v>
+      </c>
+      <c r="M32" s="43">
+        <f t="shared" ref="M32" si="11">AVERAGE(M19:M31)</f>
+        <v>0.77129986807789963</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17" thickTop="1">
+      <c r="A33" s="46">
+        <v>3.1</v>
+      </c>
+      <c r="B33" s="47">
+        <v>0.81489841986456002</v>
+      </c>
+      <c r="C33" s="47">
+        <v>0.814912741876892</v>
+      </c>
+      <c r="D33" s="47">
+        <v>0.81489841986456002</v>
+      </c>
+      <c r="E33" s="47">
+        <v>0.91549295774647899</v>
+      </c>
+      <c r="F33" s="47">
+        <v>0.84967320261437895</v>
+      </c>
+      <c r="G33" s="47">
+        <v>0.88135593220339004</v>
+      </c>
+      <c r="H33" s="47">
+        <v>0.75409836065573799</v>
+      </c>
+      <c r="I33" s="47">
+        <v>0.81176470588235305</v>
+      </c>
+      <c r="J33" s="47">
+        <v>0.78186968838526905</v>
+      </c>
+      <c r="K33" s="47">
+        <v>0.78813559322033899</v>
+      </c>
+      <c r="L33" s="47">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="M33" s="47">
+        <v>0.78151260504201703</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="44">
+        <v>3.2</v>
+      </c>
+      <c r="B34" s="50">
+        <v>0.83069977426636599</v>
+      </c>
+      <c r="C34" s="45">
+        <v>0.82956494949003601</v>
+      </c>
+      <c r="D34" s="45">
+        <v>0.83069977426636599</v>
+      </c>
+      <c r="E34" s="45">
+        <v>0.90131578947368396</v>
+      </c>
+      <c r="F34" s="45">
+        <v>0.89542483660130701</v>
+      </c>
+      <c r="G34" s="45">
+        <v>0.89836065573770496</v>
+      </c>
+      <c r="H34" s="45">
+        <v>0.80239520958083799</v>
+      </c>
+      <c r="I34" s="45">
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="J34" s="45">
+        <v>0.79525222551928798</v>
+      </c>
+      <c r="K34" s="45">
+        <v>0.782258064516129</v>
+      </c>
+      <c r="L34" s="45">
+        <v>0.80833333333333302</v>
+      </c>
+      <c r="M34" s="45">
+        <v>0.79508196721311497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="44">
+        <v>3.3</v>
+      </c>
+      <c r="B35" s="45">
+        <v>0.81489841986456002</v>
+      </c>
+      <c r="C35" s="45">
+        <v>0.81497943709146103</v>
+      </c>
+      <c r="D35" s="45">
+        <v>0.81489841986456002</v>
+      </c>
+      <c r="E35" s="45">
+        <v>0.88157894736842102</v>
+      </c>
+      <c r="F35" s="45">
+        <v>0.87581699346405195</v>
+      </c>
+      <c r="G35" s="45">
+        <v>0.878688524590164</v>
+      </c>
+      <c r="H35" s="45">
+        <v>0.77514792899408302</v>
+      </c>
+      <c r="I35" s="45">
+        <v>0.77058823529411802</v>
+      </c>
+      <c r="J35" s="45">
+        <v>0.77286135693215297</v>
+      </c>
+      <c r="K35" s="45">
+        <v>0.786885245901639</v>
+      </c>
+      <c r="L35" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="M35" s="45">
+        <v>0.79338842975206603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="44">
+        <v>3.4</v>
+      </c>
+      <c r="B36" s="45">
+        <v>0.79683972911963896</v>
+      </c>
+      <c r="C36" s="45">
+        <v>0.79769134361406002</v>
+      </c>
+      <c r="D36" s="45">
+        <v>0.79683972911963896</v>
+      </c>
+      <c r="E36" s="45">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="F36" s="45">
+        <v>0.84967320261437895</v>
+      </c>
+      <c r="G36" s="45">
+        <v>0.87248322147651003</v>
+      </c>
+      <c r="H36" s="45">
+        <v>0.73184357541899403</v>
+      </c>
+      <c r="I36" s="45">
+        <v>0.77058823529411802</v>
+      </c>
+      <c r="J36" s="45">
+        <v>0.75071633237822299</v>
+      </c>
+      <c r="K36" s="45">
+        <v>0.77310924369747902</v>
+      </c>
+      <c r="L36" s="45">
+        <v>0.76666666666666705</v>
+      </c>
+      <c r="M36" s="45">
+        <v>0.76987447698744804</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="B37" s="45">
+        <v>0.82618510158013603</v>
+      </c>
+      <c r="C37" s="45">
+        <v>0.82708185651852795</v>
+      </c>
+      <c r="D37" s="45">
+        <v>0.82618510158013603</v>
+      </c>
+      <c r="E37" s="45">
+        <v>0.89932885906040305</v>
+      </c>
+      <c r="F37" s="45">
+        <v>0.87581699346405195</v>
+      </c>
+      <c r="G37" s="45">
+        <v>0.887417218543046</v>
+      </c>
+      <c r="H37" s="45">
+        <v>0.78235294117647103</v>
+      </c>
+      <c r="I37" s="45">
+        <v>0.78235294117647103</v>
+      </c>
+      <c r="J37" s="45">
+        <v>0.78235294117647103</v>
+      </c>
+      <c r="K37" s="45">
+        <v>0.79838709677419395</v>
+      </c>
+      <c r="L37" s="45">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M37" s="45">
+        <v>0.81147540983606603</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="44">
+        <v>3.6</v>
+      </c>
+      <c r="B38" s="45">
+        <v>0.81264108352144504</v>
+      </c>
+      <c r="C38" s="45">
+        <v>0.81278359296935099</v>
+      </c>
+      <c r="D38" s="45">
+        <v>0.81264108352144504</v>
+      </c>
+      <c r="E38" s="45">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="F38" s="45">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="G38" s="45">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="H38" s="45">
+        <v>0.76162790697674398</v>
+      </c>
+      <c r="I38" s="45">
+        <v>0.77058823529411802</v>
+      </c>
+      <c r="J38" s="45">
+        <v>0.76608187134502903</v>
+      </c>
+      <c r="K38" s="45">
+        <v>0.79661016949152497</v>
+      </c>
+      <c r="L38" s="45">
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="M38" s="45">
+        <v>0.78991596638655504</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="44">
+        <v>3.7</v>
+      </c>
+      <c r="B39" s="45">
+        <v>0.80361173814898401</v>
+      </c>
+      <c r="C39" s="45">
+        <v>0.80256836521743302</v>
+      </c>
+      <c r="D39" s="45">
+        <v>0.80361173814898401</v>
+      </c>
+      <c r="E39" s="45">
+        <v>0.887417218543046</v>
+      </c>
+      <c r="F39" s="45">
+        <v>0.87581699346405195</v>
+      </c>
+      <c r="G39" s="45">
+        <v>0.88157894736842102</v>
+      </c>
+      <c r="H39" s="45">
+        <v>0.74301675977653603</v>
+      </c>
+      <c r="I39" s="45">
+        <v>0.78235294117647103</v>
+      </c>
+      <c r="J39" s="45">
+        <v>0.76217765042979901</v>
+      </c>
+      <c r="K39" s="45">
+        <v>0.787610619469027</v>
+      </c>
+      <c r="L39" s="45">
+        <v>0.74166666666666703</v>
+      </c>
+      <c r="M39" s="45">
+        <v>0.76394849785407704</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="44">
+        <v>3.8</v>
+      </c>
+      <c r="B40" s="45">
+        <v>0.80135440180586903</v>
+      </c>
+      <c r="C40" s="45">
+        <v>0.79942391370962795</v>
+      </c>
+      <c r="D40" s="45">
+        <v>0.80135440180586903</v>
+      </c>
+      <c r="E40" s="45">
+        <v>0.91489361702127703</v>
+      </c>
+      <c r="F40" s="45">
+        <v>0.84313725490196101</v>
+      </c>
+      <c r="G40" s="45">
+        <v>0.87755102040816302</v>
+      </c>
+      <c r="H40" s="45">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I40" s="45">
+        <v>0.84117647058823497</v>
+      </c>
+      <c r="J40" s="45">
+        <v>0.77297297297297296</v>
+      </c>
+      <c r="K40" s="45">
+        <v>0.81372549019607798</v>
+      </c>
+      <c r="L40" s="45">
+        <v>0.69166666666666698</v>
+      </c>
+      <c r="M40" s="45">
+        <v>0.74774774774774799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="44">
+        <v>3.9</v>
+      </c>
+      <c r="B41" s="45">
+        <v>0.80812641083521397</v>
+      </c>
+      <c r="C41" s="45">
+        <v>0.80863305358019899</v>
+      </c>
+      <c r="D41" s="45">
+        <v>0.80812641083521397</v>
+      </c>
+      <c r="E41" s="45">
+        <v>0.891156462585034</v>
+      </c>
+      <c r="F41" s="45">
+        <v>0.85620915032679701</v>
+      </c>
+      <c r="G41" s="45">
+        <v>0.87333333333333296</v>
+      </c>
+      <c r="H41" s="45">
+        <v>0.75862068965517204</v>
+      </c>
+      <c r="I41" s="45">
+        <v>0.77647058823529402</v>
+      </c>
+      <c r="J41" s="45">
+        <v>0.76744186046511598</v>
+      </c>
+      <c r="K41" s="45">
+        <v>0.77868852459016402</v>
+      </c>
+      <c r="L41" s="45">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="M41" s="45">
+        <v>0.78512396694214903</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="44">
+        <v>3.1</v>
+      </c>
+      <c r="B42" s="45">
+        <v>0.81264108352144504</v>
+      </c>
+      <c r="C42" s="45">
+        <v>0.81272991391568505</v>
+      </c>
+      <c r="D42" s="45">
+        <v>0.81264108352144504</v>
+      </c>
+      <c r="E42" s="45">
+        <v>0.897260273972603</v>
+      </c>
+      <c r="F42" s="45">
+        <v>0.85620915032679701</v>
+      </c>
+      <c r="G42" s="45">
+        <v>0.87625418060200699</v>
+      </c>
+      <c r="H42" s="45">
+        <v>0.76571428571428601</v>
+      </c>
+      <c r="I42" s="45">
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="J42" s="45">
+        <v>0.77681159420289903</v>
+      </c>
+      <c r="K42" s="45">
+        <v>0.77868852459016402</v>
+      </c>
+      <c r="L42" s="45">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="M42" s="45">
+        <v>0.78512396694214903</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="44">
+        <v>3.11</v>
+      </c>
+      <c r="B43" s="45">
+        <v>0.81264108352144504</v>
+      </c>
+      <c r="C43" s="45">
+        <v>0.81303700176137805</v>
+      </c>
+      <c r="D43" s="45">
+        <v>0.81264108352144504</v>
+      </c>
+      <c r="E43" s="45">
+        <v>0.91549295774647899</v>
+      </c>
+      <c r="F43" s="45">
+        <v>0.84967320261437895</v>
+      </c>
+      <c r="G43" s="45">
+        <v>0.88135593220339004</v>
+      </c>
+      <c r="H43" s="45">
+        <v>0.75842696629213502</v>
+      </c>
+      <c r="I43" s="45">
+        <v>0.79411764705882404</v>
+      </c>
+      <c r="J43" s="45">
+        <v>0.77586206896551702</v>
+      </c>
+      <c r="K43" s="45">
+        <v>0.77235772357723598</v>
+      </c>
+      <c r="L43" s="45">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="M43" s="45">
+        <v>0.781893004115226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="44">
+        <v>3.12</v>
+      </c>
+      <c r="B44" s="45">
+        <v>0.81264108352144504</v>
+      </c>
+      <c r="C44" s="45">
+        <v>0.81327531190761204</v>
+      </c>
+      <c r="D44" s="45">
+        <v>0.81264108352144504</v>
+      </c>
+      <c r="E44" s="45">
+        <v>0.91489361702127703</v>
+      </c>
+      <c r="F44" s="45">
+        <v>0.84313725490196101</v>
+      </c>
+      <c r="G44" s="45">
+        <v>0.87755102040816302</v>
+      </c>
+      <c r="H44" s="45">
+        <v>0.74594594594594599</v>
+      </c>
+      <c r="I44" s="45">
+        <v>0.81176470588235305</v>
+      </c>
+      <c r="J44" s="45">
+        <v>0.777464788732394</v>
+      </c>
+      <c r="K44" s="45">
+        <v>0.79487179487179505</v>
+      </c>
+      <c r="L44" s="45">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="M44" s="45">
+        <v>0.784810126582279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="44">
+        <v>3.13</v>
+      </c>
+      <c r="B45" s="45">
+        <v>0.81264108352144504</v>
+      </c>
+      <c r="C45" s="45">
+        <v>0.81209000050353997</v>
+      </c>
+      <c r="D45" s="45">
+        <v>0.81264108352144504</v>
+      </c>
+      <c r="E45" s="45">
+        <v>0.90410958904109595</v>
+      </c>
+      <c r="F45" s="45">
+        <v>0.86274509803921595</v>
+      </c>
+      <c r="G45" s="45">
+        <v>0.882943143812709</v>
+      </c>
+      <c r="H45" s="45">
+        <v>0.74594594594594599</v>
+      </c>
+      <c r="I45" s="45">
+        <v>0.81176470588235305</v>
+      </c>
+      <c r="J45" s="45">
+        <v>0.777464788732394</v>
+      </c>
+      <c r="K45" s="45">
+        <v>0.80357142857142905</v>
+      </c>
+      <c r="L45" s="45">
+        <v>0.75</v>
+      </c>
+      <c r="M45" s="45">
+        <v>0.77586206896551702</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="17" thickBot="1">
+      <c r="A46" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="49">
+        <f>AVERAGE(B33:B45)</f>
+        <v>0.81229380100711945</v>
+      </c>
+      <c r="C46" s="49">
+        <f t="shared" ref="C46" si="12">AVERAGE(C33:C45)</f>
+        <v>0.81221319093506184</v>
+      </c>
+      <c r="D46" s="49">
+        <f t="shared" ref="D46" si="13">AVERAGE(D33:D45)</f>
+        <v>0.81229380100711945</v>
+      </c>
+      <c r="E46" s="49">
+        <f t="shared" ref="E46" si="14">AVERAGE(E33:E45)</f>
+        <v>0.90014191960724632</v>
+      </c>
+      <c r="F46" s="49">
+        <f t="shared" ref="F46" si="15">AVERAGE(F33:F45)</f>
+        <v>0.86274509803921562</v>
+      </c>
+      <c r="G46" s="49">
+        <f t="shared" ref="G46" si="16">AVERAGE(G33:G45)</f>
+        <v>0.88086354398949773</v>
+      </c>
+      <c r="H46" s="49">
+        <f t="shared" ref="H46" si="17">AVERAGE(H33:H45)</f>
+        <v>0.75693357816406837</v>
+      </c>
+      <c r="I46" s="49">
+        <f t="shared" ref="I46" si="18">AVERAGE(I33:I45)</f>
+        <v>0.79230769230769249</v>
+      </c>
+      <c r="J46" s="49">
+        <f t="shared" ref="J46" si="19">AVERAGE(J33:J45)</f>
+        <v>0.77379462617211725</v>
+      </c>
+      <c r="K46" s="49">
+        <f t="shared" ref="K46" si="20">AVERAGE(K33:K45)</f>
+        <v>0.7888384245743999</v>
+      </c>
+      <c r="L46" s="49">
+        <f t="shared" ref="L46" si="21">AVERAGE(L33:L45)</f>
+        <v>0.77628205128205141</v>
+      </c>
+      <c r="M46" s="49">
+        <f t="shared" ref="M46" si="22">AVERAGE(M33:M45)</f>
+        <v>0.78198140264357019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="17" thickTop="1"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6FD129-678E-F646-B33C-6AD3E19B573C}">
+  <dimension ref="A1:M47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.75169300225733604</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.75239204011818495</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.75169300225733604</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.93220338983050799</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.71895424836601296</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.81180811808118103</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.626050420168067</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.876470588235294</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.73039215686274495</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.85057471264367801</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.61666666666666703</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.71497584541062797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0.792325056433409</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.79277748702170603</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.792325056433409</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0.92592592592592604</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0.81699346405228801</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.86805555555555602</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0.69801980198019797</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0.82941176470588196</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0.80188679245283001</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0.75221238938053103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.53950338600451497</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.49947365572334501</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.53950338600451497</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.44776119402985098</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.61475409836065598</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.129411764705882</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.22680412371134001</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.797619047619048</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.55833333333333302</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.65686274509803899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.80812641083521397</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.8079393647748</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.80812641083521397</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.87581699346405195</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.87581699346405195</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.87581699346405195</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.82517482517482499</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.69411764705882395</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.75399361022364197</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.72108843537415002</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.79400749063670395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.81489841986456002</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.81572991500705605</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.81489841986456002</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.90410958904109595</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.86274509803921595</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.882943143812709</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.78881987577639801</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.747058823529412</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.76737160120845904</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.796875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.79683972911963896</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.79870825954970903</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.79683972911963896</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.90845070422535201</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.84313725490196101</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.87457627118644099</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.75151515151515202</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.72941176470588198</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.740298507462686</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.80812641083521397</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.80797518155348402</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.80812641083521397</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.88387096774193596</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.89542483660130701</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.88961038961038996</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.78571428571428603</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.71176470588235297</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.74691358024691401</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.74626865671641796</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.78740157480314998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="B9" s="51">
+        <v>0.83747178329571104</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.83517039134391802</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.83747178329571104</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.873493975903614</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.947712418300654</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.84563758389261801</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.74117647058823499</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.78996865203761801</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.80645161290322598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.83295711060948097</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.83109831075633001</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.83295711060948097</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.893081761006289</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.92810457516339895</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.91025641025641002</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.84459459459459496</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.786163522012579</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.796875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.81941309255078998</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.81900871459695002</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.81941309255078998</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.77647058823529402</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.77647058823529402</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.77647058823529402</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.817155756207675</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.81753985468875201</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.817155756207675</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.89864864864864902</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.86928104575163401</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.88372093023255804</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.76878612716762995</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.78235294117647103</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.77551020408163296</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.786885245901639</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.79338842975206603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.79909706546275405</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.79903570435053695</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.79909706546275405</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.87012987012986998</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.87581699346405195</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.87296416938110699</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.78064516129032302</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.71176470588235297</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.74461538461538501</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.73880597014925398</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.77952755905511795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.79458239277652398</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.79509510298444697</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.79458239277652398</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.86842105263157898</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.86274509803921595</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.86557377049180295</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.73846153846153895</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.80812641083521397</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.80907263864633705</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.80812641083521397</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.90845070422535201</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.84313725490196101</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.87457627118644099</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.73655913978494603</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.80588235294117705</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.76966292134831504</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.76666666666666705</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.78297872340425501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.81264108352144504</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.81321496939459903</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.81264108352144504</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.90410958904109595</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.86274509803921595</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.882943143812709</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.77710843373493999</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.75882352941176501</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.76785714285714302</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.75572519083969503</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.78884462151394397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.82167042889390496</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.82126862782138699</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.82167042889390496</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.91156462585034004</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.87581699346405195</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.89333333333333298</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.76836158192090398</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.78386167146974095</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.78991596638655504</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0.78661087866108803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="9">
+        <f>AVERAGE(B5:B17)</f>
+        <v>0.81316200729293275</v>
+      </c>
+      <c r="C18" s="9">
+        <f t="shared" ref="C18:M18" si="0">AVERAGE(C5:C17)</f>
+        <v>0.81314284888217736</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.81316200729293275</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.89146441313831659</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.87933634992458543</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.88494574036521156</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.78642929978376996</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.74615384615384639</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.76470376340468826</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.76016879748680732</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.82371794871794868</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.78977904287663203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.79458239277652398</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.79438012522699797</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.79458239277652398</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.85611510791366896</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.68161434977578494</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.89411764705882402</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.77353689567429995</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.85263157894736796</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.753488372093023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.80361173814898401</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.80518080824829297</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.80361173814898401</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.90209790209790197</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.84313725490196101</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.87162162162162204</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.78205128205128205</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.71764705882352897</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.748466257668712</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0.79545454545454497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.817155756207675</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.81771090934713697</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.817155756207675</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.89108910891089099</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.76696165191740395</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.782258064516129</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.80833333333333302</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0.79508196721311497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.81038374717832995</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.80960869196163299</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.81038374717832995</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.88387096774193596</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.89542483660130701</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.88961038961038996</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.83823529411764697</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.67058823529411804</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.74509803921568596</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.71052631578947401</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.79411764705882404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.81489841986456002</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.81486670922007898</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.81489841986456002</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.88815789473684204</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.88524590163934402</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.77380952380952395</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.78048780487804903</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.79012345679012397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.80135440180586903</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.79926939513161299</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.80135440180586903</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.95384615384615401</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.81045751633986896</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.87632508833922296</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.68609865470852005</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.77862595419847302</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0.74285714285714299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.82392776523702005</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.82525322050683203</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.82392776523702005</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.90410958904109595</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.86274509803921595</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.882943143812709</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.77456647398843903</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.78134110787171995</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.79838709677419395</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0.81147540983606603</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.77652370203160304</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.77391670143234603</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.77652370203160304</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.93023255813953498</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.78431372549019596</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.65652173913043499</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.88823529411764701</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.755</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.86904761904761896</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.60833333333333295</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0.71568627450980404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.80135440180586903</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.80061968793091698</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.80135440180586903</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.897260273972603</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.85620915032679701</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.87625418060200699</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.72251308900523603</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.81176470588235305</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.764542936288089</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.81132075471698095</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.71666666666666701</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0.76106194690265505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.80361173814898401</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.80540094825809105</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.80361173814898401</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.90780141843971596</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.83660130718954295</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.87074829931972797</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.778481012658228</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.72352941176470598</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0.79545454545454497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="4">
+        <v>2.11</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.80361173814898401</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.80443813567365097</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.80361173814898401</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.91489361702127703</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.84313725490196101</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.87755102040816302</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.72486772486772499</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.80588235294117705</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.76323119777158799</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.79646017699115101</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0.77253218884120201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.80812641083521397</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.80941086813099405</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.80812641083521397</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.90845070422535201</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.84313725490196101</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.87457627118644099</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.74175824175824201</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.79411764705882404</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.76704545454545503</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.78991596638655504</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0.78661087866108803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.80812641083521397</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.80736315938740799</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.80812641083521397</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.94029850746268695</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.87804878048780499</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.70093457943925197</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.86315789473684201</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.68333333333333302</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0.76279069767441898</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17" thickBot="1">
+      <c r="A32" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="43">
+        <f>AVERAGE(B19:B31)</f>
+        <v>0.80517450946344848</v>
+      </c>
+      <c r="C32" s="43">
+        <f t="shared" ref="C32:M32" si="1">AVERAGE(C19:C31)</f>
+        <v>0.80518610465046103</v>
+      </c>
+      <c r="D32" s="43">
+        <f t="shared" si="1"/>
+        <v>0.80517450946344848</v>
+      </c>
+      <c r="E32" s="43">
+        <f t="shared" si="1"/>
+        <v>0.91407842974808473</v>
+      </c>
+      <c r="F32" s="43">
+        <f t="shared" si="1"/>
+        <v>0.84162895927601822</v>
+      </c>
+      <c r="G32" s="43">
+        <f t="shared" si="1"/>
+        <v>0.87547636489532532</v>
+      </c>
+      <c r="H32" s="43">
+        <f t="shared" si="1"/>
+        <v>0.74082174881085261</v>
+      </c>
+      <c r="I32" s="43">
+        <f t="shared" si="1"/>
+        <v>0.80045248868778296</v>
+      </c>
+      <c r="J32" s="43">
+        <f t="shared" si="1"/>
+        <v>0.76494848187555342</v>
+      </c>
+      <c r="K32" s="43">
+        <f t="shared" si="1"/>
+        <v>0.79839948252187409</v>
+      </c>
+      <c r="L32" s="43">
+        <f t="shared" si="1"/>
+        <v>0.76538461538461533</v>
+      </c>
+      <c r="M32" s="43">
+        <f t="shared" si="1"/>
+        <v>0.77513346718050413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17" thickTop="1">
+      <c r="A33" s="44">
+        <v>3.1</v>
+      </c>
+      <c r="B33" s="45">
+        <v>0.79683972911963896</v>
+      </c>
+      <c r="C33" s="45">
+        <v>0.799090573509178</v>
+      </c>
+      <c r="D33" s="45">
+        <v>0.79683972911963896</v>
+      </c>
+      <c r="E33" s="45">
+        <v>0.94262295081967196</v>
+      </c>
+      <c r="F33" s="45">
+        <v>0.75163398692810501</v>
+      </c>
+      <c r="G33" s="45">
+        <v>0.83636363636363598</v>
+      </c>
+      <c r="H33" s="45">
+        <v>0.69124423963133597</v>
+      </c>
+      <c r="I33" s="45">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="J33" s="45">
+        <v>0.775193798449612</v>
+      </c>
+      <c r="K33" s="45">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="L33" s="45">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="M33" s="45">
+        <v>0.78571428571428603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="44">
+        <v>3.2</v>
+      </c>
+      <c r="B34" s="50">
+        <v>0.83747178329571104</v>
+      </c>
+      <c r="C34" s="45">
+        <v>0.83923417851989301</v>
+      </c>
+      <c r="D34" s="45">
+        <v>0.83747178329571104</v>
+      </c>
+      <c r="E34" s="45">
+        <v>0.91489361702127703</v>
+      </c>
+      <c r="F34" s="45">
+        <v>0.84313725490196101</v>
+      </c>
+      <c r="G34" s="45">
+        <v>0.87755102040816302</v>
+      </c>
+      <c r="H34" s="45">
+        <v>0.78021978021978</v>
+      </c>
+      <c r="I34" s="45">
+        <v>0.83529411764705896</v>
+      </c>
+      <c r="J34" s="45">
+        <v>0.80681818181818199</v>
+      </c>
+      <c r="K34" s="45">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="L34" s="45">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="M34" s="45">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="44">
+        <v>3.3</v>
+      </c>
+      <c r="B35" s="45">
+        <v>0.81941309255078998</v>
+      </c>
+      <c r="C35" s="45">
+        <v>0.82005098339594795</v>
+      </c>
+      <c r="D35" s="45">
+        <v>0.81941309255078998</v>
+      </c>
+      <c r="E35" s="45">
+        <v>0.89795918367346905</v>
+      </c>
+      <c r="F35" s="45">
+        <v>0.86274509803921595</v>
+      </c>
+      <c r="G35" s="45">
+        <v>0.88</v>
+      </c>
+      <c r="H35" s="45">
+        <v>0.75409836065573799</v>
+      </c>
+      <c r="I35" s="45">
+        <v>0.81176470588235305</v>
+      </c>
+      <c r="J35" s="45">
+        <v>0.78186968838526905</v>
+      </c>
+      <c r="K35" s="45">
+        <v>0.82300884955752196</v>
+      </c>
+      <c r="L35" s="45">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="M35" s="45">
+        <v>0.79828326180257503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="44">
+        <v>3.4</v>
+      </c>
+      <c r="B36" s="45">
+        <v>0.817155756207675</v>
+      </c>
+      <c r="C36" s="45">
+        <v>0.81945237967725504</v>
+      </c>
+      <c r="D36" s="45">
+        <v>0.817155756207675</v>
+      </c>
+      <c r="E36" s="45">
+        <v>0.91304347826086996</v>
+      </c>
+      <c r="F36" s="45">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="G36" s="45">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="H36" s="45">
+        <v>0.75977653631284903</v>
+      </c>
+      <c r="I36" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="J36" s="45">
+        <v>0.77936962750716299</v>
+      </c>
+      <c r="K36" s="45">
+        <v>0.79365079365079405</v>
+      </c>
+      <c r="L36" s="45">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="M36" s="45">
+        <v>0.81300813008130102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="B37" s="50">
+        <v>0.83972911963882602</v>
+      </c>
+      <c r="C37" s="45">
+        <v>0.84009988654170697</v>
+      </c>
+      <c r="D37" s="45">
+        <v>0.83972911963882602</v>
+      </c>
+      <c r="E37" s="45">
+        <v>0.917241379310345</v>
+      </c>
+      <c r="F37" s="45">
+        <v>0.86928104575163401</v>
+      </c>
+      <c r="G37" s="45">
+        <v>0.89261744966443002</v>
+      </c>
+      <c r="H37" s="45">
+        <v>0.78453038674033204</v>
+      </c>
+      <c r="I37" s="45">
+        <v>0.83529411764705896</v>
+      </c>
+      <c r="J37" s="45">
+        <v>0.80911680911680905</v>
+      </c>
+      <c r="K37" s="45">
+        <v>0.829059829059829</v>
+      </c>
+      <c r="L37" s="45">
+        <v>0.80833333333333302</v>
+      </c>
+      <c r="M37" s="45">
+        <v>0.81856540084388196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="44">
+        <v>3.6</v>
+      </c>
+      <c r="B38" s="45">
+        <v>0.792325056433409</v>
+      </c>
+      <c r="C38" s="45">
+        <v>0.79290787874106705</v>
+      </c>
+      <c r="D38" s="45">
+        <v>0.792325056433409</v>
+      </c>
+      <c r="E38" s="45">
+        <v>0.93076923076923102</v>
+      </c>
+      <c r="F38" s="45">
+        <v>0.79084967320261401</v>
+      </c>
+      <c r="G38" s="45">
+        <v>0.85512367491166097</v>
+      </c>
+      <c r="H38" s="45">
+        <v>0.67567567567567599</v>
+      </c>
+      <c r="I38" s="45">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="J38" s="45">
+        <v>0.76530612244898</v>
+      </c>
+      <c r="K38" s="45">
+        <v>0.879120879120879</v>
+      </c>
+      <c r="L38" s="45">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="M38" s="45">
+        <v>0.75829383886255897</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="44">
+        <v>3.7</v>
+      </c>
+      <c r="B39" s="45">
+        <v>0.80361173814898401</v>
+      </c>
+      <c r="C39" s="45">
+        <v>0.807317555398951</v>
+      </c>
+      <c r="D39" s="45">
+        <v>0.80361173814898401</v>
+      </c>
+      <c r="E39" s="45">
+        <v>0.93442622950819698</v>
+      </c>
+      <c r="F39" s="45">
+        <v>0.74509803921568596</v>
+      </c>
+      <c r="G39" s="45">
+        <v>0.82909090909090899</v>
+      </c>
+      <c r="H39" s="45">
+        <v>0.69585253456221197</v>
+      </c>
+      <c r="I39" s="45">
+        <v>0.88823529411764701</v>
+      </c>
+      <c r="J39" s="45">
+        <v>0.78036175710594302</v>
+      </c>
+      <c r="K39" s="45">
+        <v>0.875</v>
+      </c>
+      <c r="L39" s="45">
+        <v>0.75833333333333297</v>
+      </c>
+      <c r="M39" s="45">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="44">
+        <v>3.8</v>
+      </c>
+      <c r="B40" s="45">
+        <v>0.77200902934537197</v>
+      </c>
+      <c r="C40" s="45">
+        <v>0.77121307865383704</v>
+      </c>
+      <c r="D40" s="45">
+        <v>0.77200902934537197</v>
+      </c>
+      <c r="E40" s="45">
+        <v>0.963963963963964</v>
+      </c>
+      <c r="F40" s="45">
+        <v>0.69934640522875802</v>
+      </c>
+      <c r="G40" s="45">
+        <v>0.810606060606061</v>
+      </c>
+      <c r="H40" s="45">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I40" s="45">
+        <v>0.94705882352941195</v>
+      </c>
+      <c r="J40" s="45">
+        <v>0.76303317535545001</v>
+      </c>
+      <c r="K40" s="45">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="L40" s="45">
+        <v>0.61666666666666703</v>
+      </c>
+      <c r="M40" s="45">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="44">
+        <v>3.9</v>
+      </c>
+      <c r="B41" s="45">
+        <v>0.80361173814898401</v>
+      </c>
+      <c r="C41" s="45">
+        <v>0.80548734388226995</v>
+      </c>
+      <c r="D41" s="45">
+        <v>0.80361173814898401</v>
+      </c>
+      <c r="E41" s="45">
+        <v>0.93023255813953498</v>
+      </c>
+      <c r="F41" s="45">
+        <v>0.78431372549019596</v>
+      </c>
+      <c r="G41" s="45">
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="H41" s="45">
+        <v>0.69953051643192499</v>
+      </c>
+      <c r="I41" s="45">
+        <v>0.876470588235294</v>
+      </c>
+      <c r="J41" s="45">
+        <v>0.77806788511749403</v>
+      </c>
+      <c r="K41" s="45">
+        <v>0.86138613861386104</v>
+      </c>
+      <c r="L41" s="45">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="M41" s="45">
+        <v>0.78733031674208098</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="44">
+        <v>3.1</v>
+      </c>
+      <c r="B42" s="45">
+        <v>0.82392776523702005</v>
+      </c>
+      <c r="C42" s="45">
+        <v>0.82550791967546999</v>
+      </c>
+      <c r="D42" s="45">
+        <v>0.82392776523702005</v>
+      </c>
+      <c r="E42" s="45">
+        <v>0.93283582089552197</v>
+      </c>
+      <c r="F42" s="45">
+        <v>0.81699346405228801</v>
+      </c>
+      <c r="G42" s="45">
+        <v>0.87108013937282203</v>
+      </c>
+      <c r="H42" s="45">
+        <v>0.73869346733668295</v>
+      </c>
+      <c r="I42" s="45">
+        <v>0.86470588235294099</v>
+      </c>
+      <c r="J42" s="45">
+        <v>0.79674796747967502</v>
+      </c>
+      <c r="K42" s="45">
+        <v>0.84545454545454601</v>
+      </c>
+      <c r="L42" s="45">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="M42" s="45">
+        <v>0.80869565217391304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="44">
+        <v>3.11</v>
+      </c>
+      <c r="B43" s="45">
+        <v>0.78781038374717804</v>
+      </c>
+      <c r="C43" s="45">
+        <v>0.79066923414749501</v>
+      </c>
+      <c r="D43" s="45">
+        <v>0.78781038374717904</v>
+      </c>
+      <c r="E43" s="45">
+        <v>0.92682926829268297</v>
+      </c>
+      <c r="F43" s="45">
+        <v>0.74509803921568596</v>
+      </c>
+      <c r="G43" s="45">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="H43" s="45">
+        <v>0.67727272727272703</v>
+      </c>
+      <c r="I43" s="45">
+        <v>0.876470588235294</v>
+      </c>
+      <c r="J43" s="45">
+        <v>0.76410256410256405</v>
+      </c>
+      <c r="K43" s="45">
+        <v>0.86</v>
+      </c>
+      <c r="L43" s="45">
+        <v>0.71666666666666701</v>
+      </c>
+      <c r="M43" s="45">
+        <v>0.78181818181818197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="44">
+        <v>3.12</v>
+      </c>
+      <c r="B44" s="45">
+        <v>0.78555304740406295</v>
+      </c>
+      <c r="C44" s="45">
+        <v>0.78907413000436299</v>
+      </c>
+      <c r="D44" s="45">
+        <v>0.78555304740406295</v>
+      </c>
+      <c r="E44" s="45">
+        <v>0.92622950819672101</v>
+      </c>
+      <c r="F44" s="45">
+        <v>0.73856209150326801</v>
+      </c>
+      <c r="G44" s="45">
+        <v>0.821818181818182</v>
+      </c>
+      <c r="H44" s="45">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="I44" s="45">
+        <v>0.86470588235294099</v>
+      </c>
+      <c r="J44" s="45">
+        <v>0.75968992248061995</v>
+      </c>
+      <c r="K44" s="45">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="L44" s="45">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="M44" s="45">
+        <v>0.78571428571428603</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="44">
+        <v>3.13</v>
+      </c>
+      <c r="B45" s="45">
+        <v>0.817155756207675</v>
+      </c>
+      <c r="C45" s="45">
+        <v>0.81875482673355005</v>
+      </c>
+      <c r="D45" s="45">
+        <v>0.817155756207675</v>
+      </c>
+      <c r="E45" s="45">
+        <v>0.92481203007518797</v>
+      </c>
+      <c r="F45" s="45">
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="G45" s="45">
+        <v>0.86013986013985999</v>
+      </c>
+      <c r="H45" s="45">
+        <v>0.72330097087378598</v>
+      </c>
+      <c r="I45" s="45">
+        <v>0.876470588235294</v>
+      </c>
+      <c r="J45" s="45">
+        <v>0.79255319148936199</v>
+      </c>
+      <c r="K45" s="45">
+        <v>0.86538461538461497</v>
+      </c>
+      <c r="L45" s="45">
+        <v>0.75</v>
+      </c>
+      <c r="M45" s="45">
+        <v>0.80357142857142905</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="17" thickBot="1">
+      <c r="A46" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="49">
+        <f>AVERAGE(B33:B45)</f>
+        <v>0.80743184580656369</v>
+      </c>
+      <c r="C46" s="49">
+        <f t="shared" ref="C46:M46" si="2">AVERAGE(C33:C45)</f>
+        <v>0.80914307452930645</v>
+      </c>
+      <c r="D46" s="49">
+        <f t="shared" si="2"/>
+        <v>0.80743184580656369</v>
+      </c>
+      <c r="E46" s="49">
+        <f t="shared" si="2"/>
+        <v>0.92737378607128262</v>
+      </c>
+      <c r="F46" s="49">
+        <f t="shared" si="2"/>
+        <v>0.79034690799396701</v>
+      </c>
+      <c r="G46" s="49">
+        <f t="shared" si="2"/>
+        <v>0.85211700770215348</v>
+      </c>
+      <c r="H46" s="49">
+        <f t="shared" si="2"/>
+        <v>0.71511564918774184</v>
+      </c>
+      <c r="I46" s="49">
+        <f t="shared" si="2"/>
+        <v>0.86470588235294144</v>
+      </c>
+      <c r="J46" s="49">
+        <f t="shared" si="2"/>
+        <v>0.78094082237362494</v>
+      </c>
+      <c r="K46" s="49">
+        <f t="shared" si="2"/>
+        <v>0.85251589819100537</v>
+      </c>
+      <c r="L46" s="49">
+        <f t="shared" si="2"/>
+        <v>0.74807692307692286</v>
+      </c>
+      <c r="M46" s="49">
+        <f t="shared" si="2"/>
+        <v>0.7943713935121407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="17" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
